--- a/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造01.xlsx
+++ b/document/仕様・設計書/データ・アセット管理/添付/ゲームデータ仕様/ゲームデータバイナリデータ構造01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>マジックナンバー</t>
     <phoneticPr fontId="1"/>
@@ -57,28 +57,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>型</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>u32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -128,16 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字列部オフセット</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デバッグデータ部オフセット</t>
     <rPh sb="7" eb="8">
       <t>ブ</t>
@@ -162,19 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダー部の先頭からのオフセット値（バイト）</t>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（同上）</t>
     <rPh sb="1" eb="3">
       <t>ドウジョウ</t>
@@ -192,42 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダー部も含む全体サイズ（バイト）
-デバッグデータ部は含まない</t>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヘッダー部とデバッグデータ部も含む全体サイズ（バイト）</t>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0xdb で埋める</t>
     <rPh sb="6" eb="7">
       <t>ウ</t>
@@ -261,13 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>01：ヘッダー部</t>
-    <rPh sb="7" eb="8">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アラインメント（構造体パッキング）</t>
     <rPh sb="8" eb="11">
       <t>コウゾウタイ</t>
@@ -276,6 +189,128 @@
   </si>
   <si>
     <t>0 … 1、1 … 2、2 … 4、3 … 8、4 … 16（バイト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列データ部オフセット</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「検索インデックス部オフセット」「並べ替えインデックス部オフセット」「計算式データ部オフセット」</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　「文字列データ部オフセット」「デバッグデータ部オフセット」は、それぞれ、対象データが存在しない場合は 0 になる。</t>
+    <rPh sb="23" eb="24">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー部の先頭からのオフセット値（バイト）</t>
+  </si>
+  <si>
+    <t>（同上）</t>
+  </si>
+  <si>
+    <t>ヘッダー部も含む全体サイズ（バイト）
+デバッグデータ部と構造定義部は含まない</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー部とデバッグデータ部も含む全体サイズ（バイト）
+構造定義部は含まない</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01：ヘッダー部：T_GDBIN_HEADER</t>
+    <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -347,7 +382,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,14 +395,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="40">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -479,73 +508,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -876,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,6 +875,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -931,24 +911,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -964,80 +926,65 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,7 +1269,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1335,72 +1282,72 @@
     <col min="7" max="7" width="43.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
-      <c r="B3" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
+      <c r="B3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A4" s="34"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="43">
-        <v>1</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>6</v>
+      <c r="G4" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A5" s="34"/>
       <c r="B5" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
@@ -1411,244 +1358,240 @@
         <v>1</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="34"/>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="22">
         <v>1</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>35</v>
+      <c r="G7" s="44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="34"/>
-      <c r="B8" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="43">
+      <c r="B8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="22">
         <v>4</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>25</v>
+      <c r="G8" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="16">
         <v>4</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>26</v>
+      <c r="G9" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
-      <c r="B10" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="43">
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="16">
         <v>4</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>22</v>
+      <c r="G10" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="16">
         <v>4</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F12" s="16">
         <v>4</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="16">
         <v>4</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" s="16">
         <v>4</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" s="16">
         <v>4</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="B16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="22">
         <v>4</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>23</v>
+      <c r="G16" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="27">
+        <v>16</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="22">
-        <v>4</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26" t="s">
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="27">
-        <v>16</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F18" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>